--- a/data/historical_estimates/raw/Carretta_etal_2014.xlsx
+++ b/data/historical_estimates/raw/Carretta_etal_2014.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B147681C-24F2-F145-9537-27F447F2296C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DED701-057B-B448-AB92-EDE98FA02CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="4600" windowWidth="35840" windowHeight="20200" xr2:uid="{2AF5E1E7-30D2-E044-9A03-EAB210057BF0}"/>
+    <workbookView xWindow="1460" yWindow="14700" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{2AF5E1E7-30D2-E044-9A03-EAB210057BF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -64,14 +65,40 @@
   </si>
   <si>
     <t>Carretta et al. 2014</t>
+  </si>
+  <si>
+    <t>nvessels</t>
+  </si>
+  <si>
+    <t>mesh_in_avg</t>
+  </si>
+  <si>
+    <t>n_set_obs</t>
+  </si>
+  <si>
+    <t>n_days_obs</t>
+  </si>
+  <si>
+    <t>obs_perc</t>
+  </si>
+  <si>
+    <t>n_days_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49846285-8B9B-F441-AA1F-40EE210BB10A}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
@@ -540,4 +568,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74D20C2-3E6E-6A49-9E98-B67C18645B45}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>7.3</v>
+      </c>
+      <c r="D2">
+        <v>1360</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Carretta_etal_2014.xlsx
+++ b/data/historical_estimates/raw/Carretta_etal_2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DED701-057B-B448-AB92-EDE98FA02CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0235399E-CA8E-AD44-B5DB-3C11E15F7CF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="14700" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{2AF5E1E7-30D2-E044-9A03-EAB210057BF0}"/>
+    <workbookView xWindow="1460" yWindow="6680" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{2AF5E1E7-30D2-E044-9A03-EAB210057BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -73,16 +73,19 @@
     <t>mesh_in_avg</t>
   </si>
   <si>
-    <t>n_set_obs</t>
-  </si>
-  <si>
-    <t>n_days_obs</t>
-  </si>
-  <si>
-    <t>obs_perc</t>
-  </si>
-  <si>
-    <t>n_days_tot</t>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>nvesseldays</t>
+  </si>
+  <si>
+    <t>nsets_obs</t>
+  </si>
+  <si>
+    <t>nvesseldays_obs</t>
+  </si>
+  <si>
+    <t>pvesseldays_obs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:A4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,38 +575,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74D20C2-3E6E-6A49-9E98-B67C18645B45}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -611,27 +615,39 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>2012</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>7.3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1360</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>250</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>75</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>5.5</v>
       </c>
     </row>
